--- a/Scenario3_savepath/CPY_catch_connectivity.xlsx
+++ b/Scenario3_savepath/CPY_catch_connectivity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s194463_dtu_dk/Documents/Observation Modeling and Management of Water Sytstems/Assigment/water_resources_model/Scenario3_savepath/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\12345 Obs, Mod and WS Management\2023\WRM_material\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A28181E9870DE6068420CB6310E0A040BE68FF82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61FAB8B3-F9EF-7447-ABC1-4FF1BDB49467}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="740" windowWidth="17240" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="17235" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="streams_ou" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Reservoir</t>
   </si>
@@ -52,6 +51,9 @@
     <t>Kiu Lom and Kiu Kho Mai</t>
   </si>
   <si>
+    <t>Kaeng Suea Ten</t>
+  </si>
+  <si>
     <t>Sirikit</t>
   </si>
   <si>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
@@ -709,23 +711,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -761,23 +746,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -953,31 +921,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="4" customWidth="1"/>
-    <col min="13" max="14" width="16.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="1" customWidth="1"/>
-    <col min="16" max="18" width="16.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="4" customWidth="1"/>
+    <col min="13" max="14" width="16.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="16.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1009,7 +977,7 @@
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>10</v>
       </c>
@@ -1025,11 +993,11 @@
       <c r="E2" s="5">
         <v>-1</v>
       </c>
-      <c r="F2" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>7</v>
       </c>
@@ -1049,7 +1017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>15</v>
       </c>
@@ -1069,7 +1037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>14</v>
       </c>
@@ -1089,7 +1057,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>20</v>
       </c>
@@ -1106,10 +1074,10 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>24</v>
       </c>
@@ -1129,7 +1097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>28</v>
       </c>
@@ -1149,7 +1117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>33</v>
       </c>
@@ -1169,7 +1137,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1189,7 +1157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>12</v>
       </c>
@@ -1206,10 +1174,10 @@
         <v>-1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>5</v>
       </c>
@@ -1229,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>25</v>
       </c>
@@ -1249,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>9</v>
       </c>
